--- a/spreadsheet/macrofree/aoai_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aoai_checklist.en.xlsx
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>If the diagnostics are not sufficient for you, consider using a gateway such as Azure API Managements in front of Azure OpenAI to log both incoming prompts and outgoing responses, where permitted</t>
+          <t>Enable and configure Diagnostics for the Azure OpenAI Service. If not sufficient, consider using a gateway such as Azure API Managements in front of Azure OpenAI to log both incoming prompts and outgoing responses, where permitted</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Improve latency of the system by limiting token sizes, streaming options</t>
+          <t>Improve latency of the system by limiting token sizes, streaming options for applications like chatbots or conversational interfaces. Streaming can enhance the perceived performance of Azure OpenAI applications by delivering responses to users in an incremental manner</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-cloud-introduction</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/ai-onboarding</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Set a maximum limit on the number of tokens per model response. Optimize the size to ensure it is large enough for a valid response</t>
+          <t>Set a maximum limit on the number of tokens per model response (max_tokens and the number of completions to generate). Optimize the size to ensure it is large enough for a valid response</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>AI Search Reliability</t>
+          <t>AI Search Vector Limits</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Review the guidance provided on setting up AI search for Reliability</t>
+          <t>Plan and manage AI Search Vector storage</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3930,7 +3930,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
+          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3938,7 +3938,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>71ca7da8-cfa9-462a-8594-946da97dc3a2</t>
+          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3954,12 +3954,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>AI Search Vector Limits</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Plan and manage AI Search Vector storage</t>
+          <t>Ensure deployment of Azure OpenAI instances across your various environments, such as development, test, and production supporting lrarning &amp; experimentation. Apply LLMOps practices to automate the lifecycle management of your GenAI applications</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3976,7 +3976,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -3984,7 +3984,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3995,23 +3995,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Operations Management</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Costing Model</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Apply LLMOps practices to automate the lifecycle management of your GenAI applications</t>
+          <t>Evaluate usage of billing models - PAYG vs PTU. Start with PAYG and consider PTU when the usage is predictable in production since it offers dedicated memory and compute, reserved capacity, and consistent maximum latency for the specified model version</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4022,7 +4022,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4030,7 +4030,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
+          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4041,23 +4041,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Cost Optimization</t>
+          <t>Operations Management</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Costing Model</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Evaluate usage of billing models - PAYG vs PTU</t>
+          <t>Evaluate the quality of  prompts and applications when switching between model versions</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4068,7 +4068,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
+          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
+          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Evaluate the quality of  prompts and applications when switching between model versions</t>
+          <t>Evaluate, monitor and refine your GenAI apps for features like groundedness, relevance, accuracy, coherence and fluency</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4122,7 +4122,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
+          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Evaluate, monitor and refine your GenAI apps for features like groundedness, relevance, accuracy, coherence, fluency, �</t>
+          <t>Evaluate your Azure AI Search results based on different search parameters</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4158,17 +4158,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
+          <t>294798b1-578b-4219-a46c-eb5443513592</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4189,7 +4185,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Evaluate your Azure AI Search results based on different search parameters</t>
+          <t>Look at fine tuning models as way of increasing accuracy only when you have tried other basic approaches like prompt engineering and RAG with your data</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4204,13 +4200,17 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>294798b1-578b-4219-a46c-eb5443513592</t>
+          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Look at fine tuning models as way of increasing accuracy only when you have tried other basic approaches like prompt engineering and RAG with your data</t>
+          <t>Use prompt engineering techniques to improve the accuracy of LLM responses</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4248,7 +4248,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4256,7 +4256,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
+          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4267,17 +4267,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Operations Management</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Security Audits and Penetration Testing</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use prompt engineering techniques to improve the accuracy of LLM responses</t>
+          <t>Red team your GenAI applications</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4294,7 +4294,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4302,7 +4302,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
+          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4313,17 +4313,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Operations Management</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Security Audits and Penetration Testing</t>
+          <t>End user feedback</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Red team your GenAI applications</t>
+          <t xml:space="preserve">Provide end users with scoring options for LLM responses and track these scores. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4340,7 +4340,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
+          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4348,7 +4348,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
+          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>End user feedback</t>
+          <t>Fine tuning</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Provide end users with scoring options for LLM responses and track these scores. </t>
+          <t>Follow the guidance for fine-tuning with large data files and import the data from an Azure blob store. Large files, 100 MB or larger, can become unstable when uploaded through multipart forms because the requests are atomic and can't be retried or resumed</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4386,7 +4386,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/fine-tuning?tabs=turbo%2Cpython-new&amp;pivots=programming-language-studio#import-training-data-from-azure-blob-store</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4405,23 +4405,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Cost Optimization</t>
+          <t>Operations Management</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Quota Management</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Consider Quota management practices</t>
+          <t>Manage rate limits for your model deployments and monitor usage of tokens per minute (TPM) and requests per minute (RPM) for pay-as-you-go deployments</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4432,7 +4432,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/quota?tabs=rest</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4440,7 +4440,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Load Balancing</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use Load balancer solutions like APIM based gateway for balancing load and capacity across services and regions</t>
+          <t>Monitor provision-managed utilization if you're using the provisioned throughput payment model</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4486,7 +4486,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4495,221 +4495,598 @@
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>Quota Management</t>
+        </is>
+      </c>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>Consider Quota management practices. Use dynamic quota for certain use cases when your application can use extra capacity opportunistically or the application itself is driving the rate at which the Azure OpenAI API is called</t>
+        </is>
+      </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="n"/>
+      <c r="H84" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+        </is>
+      </c>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>Responsible AI</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>Content Safety</t>
+        </is>
+      </c>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Tune content filters to minimize false positives from overly aggressive filters</t>
+        </is>
+      </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="n"/>
+      <c r="H85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/content-filters</t>
+        </is>
+      </c>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>Governance and Security</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>Key Management</t>
+        </is>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Use customer-managed keys for fine-tuned models and training data that's uploaded to Azure OpenAI</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="n"/>
+      <c r="H86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/encrypt-data-at-rest</t>
+        </is>
+      </c>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>Governance and Security</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>Jailbreak protection</t>
+        </is>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>Implement jailbreak risk detection to safeguard your language model deployments against prompt injection attacks</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="n"/>
+      <c r="H87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/content-safety/concepts/jailbreak-detection</t>
+        </is>
+      </c>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>Governance and Security</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>Quota exhaustion</t>
+        </is>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>Use security controls like throttling, service isolation and gateway pattern to prevent attacks that might exhaust model usage quotas</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="n"/>
+      <c r="H88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
+        </is>
+      </c>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>Cost estimation</t>
+        </is>
+      </c>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>Develop your cost model, considering prompt sizes. Understanding prompt input and response sizes and how text translates into tokens helps you create a viable cost model</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="n"/>
+      <c r="H89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>Model selection</t>
+        </is>
+      </c>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>Consider model pricing and capabilities when you choose models. Start with less-costly models for less-complex tasks like text generation or completion tasks and for complex tasks like language translation or content understanding, consider using more advanced models. Optimize costs while still achieving the desired application performance</t>
+        </is>
+      </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/details/cognitive-services/openai-service/</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>Usage Optimization</t>
+        </is>
+      </c>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Maximize Azure OpenAI price breakpoints like fine-tuning and model breakpoints like image generation to your advantage. Fine-tuning is charged per hour, use as much time as you have available per hour to improve results without slipping into the next billing period. The cost for generating 100 images is the same as the cost for 1 image</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="n"/>
+      <c r="H91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>Usage Optimization</t>
+        </is>
+      </c>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>Remove unused fine-tuned models when they're no longer being consumed to avoid incurring an ongoing hosting fee</t>
+        </is>
+      </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>Token Optimization</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Create concise prompts that provide enough context for the model to generate a useful response. Also ensure that you optimize the limit of the response length.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Operations Management</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>IaC</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Use infrastructure as code (IaC) to deploy Azure OpenAI, model deployments, and other infrastructure required for fine-tuning models</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/create-account-bicep</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Operations Management</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>Load Balancing</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Use Load balancer solutions like APIM based gateway for balancing load and capacity across services and regions</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+        </is>
+      </c>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Operations Management</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>Consider using dedicated model deployments per consumer group to provide per-model usage isolation that can help prevent noisy neighbors between your consumer groups</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/multitenant/service/openai</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>2744293b-b628-4537-a551-19b08e8f5855</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
@@ -7971,7 +8348,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
